--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E1624-EDEC-4B13-8A40-B2F99846FE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B5A2B0-8018-420B-8290-BA21D70E5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
     <sheet name="MarketShare" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -768,37 +768,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>79</v>
+        <v>0.79</v>
       </c>
       <c r="U6">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="V6">
-        <v>81</v>
+        <v>0.81</v>
       </c>
       <c r="W6">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="X6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AD6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -860,34 +860,34 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="V7">
-        <v>68.849999999999994</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W7">
-        <v>69.7</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X7">
-        <v>70.55</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1038,34 +1038,34 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="V9">
-        <v>68.849999999999994</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W9">
-        <v>69.7</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X9">
-        <v>70.55</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>67.150000000000006</v>
+        <v>0.6715000000000001</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="AD11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B5A2B0-8018-420B-8290-BA21D70E5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89CE184-8F91-423C-B6B0-8286ACE6BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -448,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:AD11"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,73 +482,139 @@
         <v>2018</v>
       </c>
       <c r="I1">
+        <v>2018.5</v>
+      </c>
+      <c r="J1">
         <v>2019</v>
       </c>
-      <c r="J1">
+      <c r="K1">
+        <v>2019.5</v>
+      </c>
+      <c r="L1">
         <v>2020</v>
       </c>
-      <c r="K1">
+      <c r="M1">
+        <v>2020.5</v>
+      </c>
+      <c r="N1">
         <v>2021</v>
       </c>
-      <c r="L1">
+      <c r="O1">
+        <v>2021.5</v>
+      </c>
+      <c r="P1">
         <v>2022</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
+        <v>2022.5</v>
+      </c>
+      <c r="R1">
         <v>2023</v>
       </c>
-      <c r="N1">
+      <c r="S1">
+        <v>2023.5</v>
+      </c>
+      <c r="T1">
         <v>2024</v>
       </c>
-      <c r="O1">
+      <c r="U1">
+        <v>2024.5</v>
+      </c>
+      <c r="V1">
         <v>2025</v>
       </c>
-      <c r="P1">
+      <c r="W1">
+        <v>2025.5</v>
+      </c>
+      <c r="X1">
         <v>2026</v>
       </c>
-      <c r="Q1">
+      <c r="Y1">
+        <v>2026.5</v>
+      </c>
+      <c r="Z1">
         <v>2027</v>
       </c>
-      <c r="R1">
+      <c r="AA1">
+        <v>2027.5</v>
+      </c>
+      <c r="AB1">
         <v>2028</v>
       </c>
-      <c r="S1">
+      <c r="AC1">
+        <v>2028.5</v>
+      </c>
+      <c r="AD1">
         <v>2029</v>
       </c>
-      <c r="T1">
+      <c r="AE1">
+        <v>2029.5</v>
+      </c>
+      <c r="AF1">
         <v>2030</v>
       </c>
-      <c r="U1">
+      <c r="AG1">
+        <v>2030.5</v>
+      </c>
+      <c r="AH1">
         <v>2031</v>
       </c>
-      <c r="V1">
+      <c r="AI1">
+        <v>2031.5</v>
+      </c>
+      <c r="AJ1">
         <v>2032</v>
       </c>
-      <c r="W1">
+      <c r="AK1">
+        <v>2032.5</v>
+      </c>
+      <c r="AL1">
         <v>2033</v>
       </c>
-      <c r="X1">
+      <c r="AM1">
+        <v>2033.5</v>
+      </c>
+      <c r="AN1">
         <v>2034</v>
       </c>
-      <c r="Y1">
+      <c r="AO1">
+        <v>2034.5</v>
+      </c>
+      <c r="AP1">
         <v>2035</v>
       </c>
-      <c r="Z1">
+      <c r="AQ1">
+        <v>2035.5</v>
+      </c>
+      <c r="AR1">
         <v>2036</v>
       </c>
-      <c r="AA1">
+      <c r="AS1">
+        <v>2036.5</v>
+      </c>
+      <c r="AT1">
         <v>2037</v>
       </c>
-      <c r="AB1">
+      <c r="AU1">
+        <v>2037.5</v>
+      </c>
+      <c r="AV1">
         <v>2038</v>
       </c>
-      <c r="AC1">
+      <c r="AW1">
+        <v>2038.5</v>
+      </c>
+      <c r="AX1">
         <v>2039</v>
       </c>
-      <c r="AD1">
+      <c r="AY1">
+        <v>2039.5</v>
+      </c>
+      <c r="AZ1">
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -579,8 +645,20 @@
       <c r="N2">
         <v>0.6</v>
       </c>
+      <c r="P2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>0.6</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="V2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -599,32 +677,95 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="P3">
-        <v>0.75</v>
-      </c>
-      <c r="R3">
-        <v>0.75</v>
-      </c>
-      <c r="T3">
-        <v>0.75</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
       <c r="X3">
         <v>0.75</v>
       </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
       <c r="Z3">
         <v>0.75</v>
       </c>
+      <c r="AA3">
+        <v>0.75</v>
+      </c>
       <c r="AB3">
         <v>0.75</v>
       </c>
+      <c r="AC3">
+        <v>0.75</v>
+      </c>
       <c r="AD3">
         <v>0.75</v>
       </c>
+      <c r="AE3">
+        <v>0.75</v>
+      </c>
+      <c r="AF3">
+        <v>0.75</v>
+      </c>
+      <c r="AG3">
+        <v>0.75</v>
+      </c>
+      <c r="AH3">
+        <v>0.75</v>
+      </c>
+      <c r="AI3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ3">
+        <v>0.75</v>
+      </c>
+      <c r="AK3">
+        <v>0.75</v>
+      </c>
+      <c r="AL3">
+        <v>0.75</v>
+      </c>
+      <c r="AM3">
+        <v>0.75</v>
+      </c>
+      <c r="AN3">
+        <v>0.75</v>
+      </c>
+      <c r="AO3">
+        <v>0.75</v>
+      </c>
+      <c r="AP3">
+        <v>0.75</v>
+      </c>
+      <c r="AQ3">
+        <v>0.75</v>
+      </c>
+      <c r="AR3">
+        <v>0.75</v>
+      </c>
+      <c r="AS3">
+        <v>0.75</v>
+      </c>
+      <c r="AT3">
+        <v>0.75</v>
+      </c>
+      <c r="AU3">
+        <v>0.75</v>
+      </c>
+      <c r="AV3">
+        <v>0.75</v>
+      </c>
+      <c r="AW3">
+        <v>0.75</v>
+      </c>
+      <c r="AX3">
+        <v>0.75</v>
+      </c>
+      <c r="AY3">
+        <v>0.75</v>
+      </c>
+      <c r="AZ3">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -643,32 +784,95 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>0.5</v>
-      </c>
-      <c r="T4">
-        <v>0.5</v>
-      </c>
-      <c r="V4">
-        <v>0.5</v>
-      </c>
       <c r="X4">
         <v>0.5</v>
       </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
       <c r="Z4">
         <v>0.5</v>
       </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
       <c r="AB4">
         <v>0.5</v>
       </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
       <c r="AD4">
         <v>0.5</v>
       </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.5</v>
+      </c>
+      <c r="AI4">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.5</v>
+      </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AN4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0.5</v>
+      </c>
+      <c r="AR4">
+        <v>0.5</v>
+      </c>
+      <c r="AS4">
+        <v>0.5</v>
+      </c>
+      <c r="AT4">
+        <v>0.5</v>
+      </c>
+      <c r="AU4">
+        <v>0.5</v>
+      </c>
+      <c r="AV4">
+        <v>0.5</v>
+      </c>
+      <c r="AW4">
+        <v>0.5</v>
+      </c>
+      <c r="AX4">
+        <v>0.5</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -687,32 +891,95 @@
       <c r="G5">
         <v>65</v>
       </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>0.5</v>
-      </c>
-      <c r="T5">
-        <v>0.5</v>
-      </c>
-      <c r="V5">
-        <v>0.5</v>
-      </c>
       <c r="X5">
         <v>0.5</v>
       </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
       <c r="Z5">
         <v>0.5</v>
       </c>
+      <c r="AA5">
+        <v>0.5</v>
+      </c>
       <c r="AB5">
         <v>0.5</v>
       </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
       <c r="AD5">
         <v>0.5</v>
       </c>
+      <c r="AE5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <v>0.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.5</v>
+      </c>
+      <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.5</v>
+      </c>
+      <c r="AL5">
+        <v>0.5</v>
+      </c>
+      <c r="AM5">
+        <v>0.5</v>
+      </c>
+      <c r="AN5">
+        <v>0.5</v>
+      </c>
+      <c r="AO5">
+        <v>0.5</v>
+      </c>
+      <c r="AP5">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5">
+        <v>0.5</v>
+      </c>
+      <c r="AR5">
+        <v>0.5</v>
+      </c>
+      <c r="AS5">
+        <v>0.5</v>
+      </c>
+      <c r="AT5">
+        <v>0.5</v>
+      </c>
+      <c r="AU5">
+        <v>0.5</v>
+      </c>
+      <c r="AV5">
+        <v>0.5</v>
+      </c>
+      <c r="AW5">
+        <v>0.5</v>
+      </c>
+      <c r="AX5">
+        <v>0.5</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -734,74 +1001,74 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>0.79</v>
       </c>
-      <c r="U6">
+      <c r="AH6">
         <v>0.8</v>
       </c>
-      <c r="V6">
+      <c r="AJ6">
         <v>0.81</v>
       </c>
-      <c r="W6">
+      <c r="AL6">
         <v>0.82</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>0.95</v>
       </c>
-      <c r="Y6">
+      <c r="AP6">
         <v>0.95</v>
       </c>
-      <c r="Z6">
+      <c r="AR6">
         <v>0.95</v>
       </c>
-      <c r="AA6">
+      <c r="AT6">
         <v>0.95</v>
       </c>
-      <c r="AB6">
+      <c r="AV6">
         <v>0.95</v>
       </c>
-      <c r="AC6">
+      <c r="AX6">
         <v>0.95</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -823,74 +1090,74 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0.68</v>
       </c>
-      <c r="V7">
+      <c r="AJ7">
         <v>0.68849999999999989</v>
       </c>
-      <c r="W7">
+      <c r="AL7">
         <v>0.69700000000000006</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>0.70550000000000002</v>
       </c>
-      <c r="Y7">
+      <c r="AP7">
         <v>0.8075</v>
       </c>
-      <c r="Z7">
+      <c r="AR7">
         <v>0.8075</v>
       </c>
-      <c r="AA7">
+      <c r="AT7">
         <v>0.8075</v>
       </c>
-      <c r="AB7">
+      <c r="AV7">
         <v>0.8075</v>
       </c>
-      <c r="AC7">
+      <c r="AX7">
         <v>0.8075</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -912,74 +1179,74 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.45</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>0.45</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1001,74 +1268,74 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>0.68</v>
       </c>
-      <c r="V9">
+      <c r="AJ9">
         <v>0.68849999999999989</v>
       </c>
-      <c r="W9">
+      <c r="AL9">
         <v>0.69700000000000006</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>0.70550000000000002</v>
       </c>
-      <c r="Y9">
+      <c r="AP9">
         <v>0.8075</v>
       </c>
-      <c r="Z9">
+      <c r="AR9">
         <v>0.8075</v>
       </c>
-      <c r="AA9">
+      <c r="AT9">
         <v>0.8075</v>
       </c>
-      <c r="AB9">
+      <c r="AV9">
         <v>0.8075</v>
       </c>
-      <c r="AC9">
+      <c r="AX9">
         <v>0.8075</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1090,74 +1357,74 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>0.6715000000000001</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.8075</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1179,70 +1446,70 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.45</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>0.45</v>
       </c>
-      <c r="Y11">
+      <c r="AP11">
         <v>0.45</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <v>0.45</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>0.45</v>
       </c>
     </row>
@@ -1253,15 +1520,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F2D99-6D6A-CD4F-83A8-836F61647DE0}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,73 +1542,139 @@
         <v>2018</v>
       </c>
       <c r="E1">
+        <v>2018.5</v>
+      </c>
+      <c r="F1">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="G1">
+        <v>2019.5</v>
+      </c>
+      <c r="H1">
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="I1">
+        <v>2020.5</v>
+      </c>
+      <c r="J1">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="K1">
+        <v>2021.5</v>
+      </c>
+      <c r="L1">
         <v>2022</v>
       </c>
-      <c r="I1">
+      <c r="M1">
+        <v>2022.5</v>
+      </c>
+      <c r="N1">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="O1">
+        <v>2023.5</v>
+      </c>
+      <c r="P1">
         <v>2024</v>
       </c>
-      <c r="K1">
+      <c r="Q1">
+        <v>2024.5</v>
+      </c>
+      <c r="R1">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="S1">
+        <v>2025.5</v>
+      </c>
+      <c r="T1">
         <v>2026</v>
       </c>
-      <c r="M1">
+      <c r="U1">
+        <v>2026.5</v>
+      </c>
+      <c r="V1">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="W1">
+        <v>2027.5</v>
+      </c>
+      <c r="X1">
         <v>2028</v>
       </c>
-      <c r="O1">
+      <c r="Y1">
+        <v>2028.5</v>
+      </c>
+      <c r="Z1">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="AA1">
+        <v>2029.5</v>
+      </c>
+      <c r="AB1">
         <v>2030</v>
       </c>
-      <c r="Q1">
+      <c r="AC1">
+        <v>2030.5</v>
+      </c>
+      <c r="AD1">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="AE1">
+        <v>2031.5</v>
+      </c>
+      <c r="AF1">
         <v>2032</v>
       </c>
-      <c r="S1">
+      <c r="AG1">
+        <v>2032.5</v>
+      </c>
+      <c r="AH1">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="AI1">
+        <v>2033.5</v>
+      </c>
+      <c r="AJ1">
         <v>2034</v>
       </c>
-      <c r="U1">
+      <c r="AK1">
+        <v>2034.5</v>
+      </c>
+      <c r="AL1">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="AM1">
+        <v>2035.5</v>
+      </c>
+      <c r="AN1">
         <v>2036</v>
       </c>
-      <c r="W1">
+      <c r="AO1">
+        <v>2036.5</v>
+      </c>
+      <c r="AP1">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="AQ1">
+        <v>2037.5</v>
+      </c>
+      <c r="AR1">
         <v>2038</v>
       </c>
-      <c r="Y1">
+      <c r="AS1">
+        <v>2038.5</v>
+      </c>
+      <c r="AT1">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="AU1">
+        <v>2039.5</v>
+      </c>
+      <c r="AV1">
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1351,30 +1684,6 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
         <v>1</v>
       </c>
@@ -1396,8 +1705,74 @@
       <c r="Z2">
         <v>1</v>
       </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1431,8 +1806,32 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1476,7 +1875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89CE184-8F91-423C-B6B0-8286ACE6BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F66F6-F455-BC46-B094-685386EB9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26420" windowHeight="17880" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Old Product B (SOC)</t>
+  </si>
+  <si>
+    <t>Vector Control</t>
   </si>
 </sst>
 </file>
@@ -448,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +617,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -633,9 +636,6 @@
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
       <c r="J2">
         <v>0.6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1511,6 +1511,56 @@
       </c>
       <c r="AZ11">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12">
+        <v>0.25</v>
+      </c>
+      <c r="Z12">
+        <v>0.25</v>
+      </c>
+      <c r="AB12">
+        <v>0.25</v>
+      </c>
+      <c r="AD12">
+        <v>0.25</v>
+      </c>
+      <c r="AF12">
+        <v>0.25</v>
+      </c>
+      <c r="AH12">
+        <v>0.25</v>
+      </c>
+      <c r="AJ12">
+        <v>0.25</v>
+      </c>
+      <c r="AL12">
+        <v>0.25</v>
+      </c>
+      <c r="AN12">
+        <v>0.25</v>
+      </c>
+      <c r="AP12">
+        <v>0.25</v>
+      </c>
+      <c r="AR12">
+        <v>0.25</v>
+      </c>
+      <c r="AT12">
+        <v>0.25</v>
+      </c>
+      <c r="AV12">
+        <v>0.25</v>
+      </c>
+      <c r="AX12">
+        <v>0.25</v>
+      </c>
+      <c r="AZ12">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1526,9 +1576,9 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1724,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1831,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1853,7 +1903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F66F6-F455-BC46-B094-685386EB9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC219FF1-7568-3247-9D02-62E35460DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26420" windowHeight="17880" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -105,10 +105,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,26 +644,29 @@
       <c r="G2">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>0.73599999999999999</v>
+      </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="T2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="V2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
@@ -678,91 +689,91 @@
         <v>15</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AB3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AC3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AD3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AE3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AF3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AG3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AH3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AI3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AJ3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AK3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AL3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AM3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AN3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AO3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AV3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AW3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AX3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AY3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AZ3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
@@ -784,92 +795,93 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4">
-        <v>0.5</v>
-      </c>
-      <c r="Z4">
-        <v>0.5</v>
-      </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-      <c r="AB4">
-        <v>0.5</v>
-      </c>
-      <c r="AC4">
-        <v>0.5</v>
-      </c>
-      <c r="AD4">
-        <v>0.5</v>
-      </c>
-      <c r="AE4">
-        <v>0.5</v>
-      </c>
-      <c r="AF4">
-        <v>0.5</v>
-      </c>
-      <c r="AG4">
-        <v>0.5</v>
-      </c>
-      <c r="AH4">
-        <v>0.5</v>
-      </c>
-      <c r="AI4">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5</v>
-      </c>
-      <c r="AK4">
-        <v>0.5</v>
-      </c>
-      <c r="AL4">
-        <v>0.5</v>
-      </c>
-      <c r="AM4">
-        <v>0.5</v>
-      </c>
-      <c r="AN4">
-        <v>0.5</v>
-      </c>
-      <c r="AO4">
-        <v>0.5</v>
-      </c>
-      <c r="AP4">
-        <v>0.5</v>
-      </c>
-      <c r="AQ4">
-        <v>0.5</v>
-      </c>
-      <c r="AR4">
-        <v>0.5</v>
-      </c>
-      <c r="AS4">
-        <v>0.5</v>
-      </c>
-      <c r="AT4">
-        <v>0.5</v>
-      </c>
-      <c r="AU4">
-        <v>0.5</v>
-      </c>
-      <c r="AV4">
-        <v>0.5</v>
-      </c>
-      <c r="AW4">
-        <v>0.5</v>
-      </c>
-      <c r="AX4">
-        <v>0.5</v>
-      </c>
-      <c r="AY4">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4">
-        <v>0.5</v>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
@@ -891,92 +903,93 @@
       <c r="G5">
         <v>65</v>
       </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5">
-        <v>0.5</v>
-      </c>
-      <c r="Z5">
-        <v>0.5</v>
-      </c>
-      <c r="AA5">
-        <v>0.5</v>
-      </c>
-      <c r="AB5">
-        <v>0.5</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-      <c r="AD5">
-        <v>0.5</v>
-      </c>
-      <c r="AE5">
-        <v>0.5</v>
-      </c>
-      <c r="AF5">
-        <v>0.5</v>
-      </c>
-      <c r="AG5">
-        <v>0.5</v>
-      </c>
-      <c r="AH5">
-        <v>0.5</v>
-      </c>
-      <c r="AI5">
-        <v>0.5</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5</v>
-      </c>
-      <c r="AK5">
-        <v>0.5</v>
-      </c>
-      <c r="AL5">
-        <v>0.5</v>
-      </c>
-      <c r="AM5">
-        <v>0.5</v>
-      </c>
-      <c r="AN5">
-        <v>0.5</v>
-      </c>
-      <c r="AO5">
-        <v>0.5</v>
-      </c>
-      <c r="AP5">
-        <v>0.5</v>
-      </c>
-      <c r="AQ5">
-        <v>0.5</v>
-      </c>
-      <c r="AR5">
-        <v>0.5</v>
-      </c>
-      <c r="AS5">
-        <v>0.5</v>
-      </c>
-      <c r="AT5">
-        <v>0.5</v>
-      </c>
-      <c r="AU5">
-        <v>0.5</v>
-      </c>
-      <c r="AV5">
-        <v>0.5</v>
-      </c>
-      <c r="AW5">
-        <v>0.5</v>
-      </c>
-      <c r="AX5">
-        <v>0.5</v>
-      </c>
-      <c r="AY5">
-        <v>0.5</v>
-      </c>
-      <c r="AZ5">
-        <v>0.5</v>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC219FF1-7568-3247-9D02-62E35460DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5534ED-F21B-E14C-A3B7-0AACB3FE3FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26420" windowHeight="17880" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2">
@@ -889,107 +889,88 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AZ5" s="2">
-        <v>0.61299999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.79</v>
+      </c>
+      <c r="AH5">
+        <v>0.8</v>
+      </c>
+      <c r="AJ5">
+        <v>0.81</v>
+      </c>
+      <c r="AL5">
+        <v>0.82</v>
+      </c>
+      <c r="AN5">
+        <v>0.95</v>
+      </c>
+      <c r="AP5">
+        <v>0.95</v>
+      </c>
+      <c r="AR5">
+        <v>0.95</v>
+      </c>
+      <c r="AT5">
+        <v>0.95</v>
+      </c>
+      <c r="AV5">
+        <v>0.95</v>
+      </c>
+      <c r="AX5">
+        <v>0.95</v>
+      </c>
+      <c r="AZ5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
@@ -1003,13 +984,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1048,37 +1029,37 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="AJ6">
-        <v>0.81</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="AL6">
-        <v>0.82</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="AN6">
-        <v>0.95</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AR6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AT6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AV6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AX6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AZ6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
@@ -1089,17 +1070,17 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1137,37 +1118,37 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AH7">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.70550000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="AP7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
@@ -1178,16 +1159,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1226,37 +1207,37 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="AN8">
-        <v>0.45</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
@@ -1273,10 +1254,10 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1315,37 +1296,37 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.6715000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.70550000000000002</v>
+        <v>0.8075</v>
       </c>
       <c r="AP9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
@@ -1362,10 +1343,10 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1404,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.6715000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1416,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.8075</v>
+        <v>0.45</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -1431,148 +1412,59 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AN11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AP11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AX11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AZ11">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12">
-        <v>0.25</v>
-      </c>
-      <c r="Z12">
-        <v>0.25</v>
-      </c>
-      <c r="AB12">
-        <v>0.25</v>
-      </c>
-      <c r="AD12">
-        <v>0.25</v>
-      </c>
-      <c r="AF12">
-        <v>0.25</v>
-      </c>
-      <c r="AH12">
-        <v>0.25</v>
-      </c>
-      <c r="AJ12">
-        <v>0.25</v>
-      </c>
-      <c r="AL12">
-        <v>0.25</v>
-      </c>
-      <c r="AN12">
-        <v>0.25</v>
-      </c>
-      <c r="AP12">
-        <v>0.25</v>
-      </c>
-      <c r="AR12">
-        <v>0.25</v>
-      </c>
-      <c r="AT12">
-        <v>0.25</v>
-      </c>
-      <c r="AV12">
-        <v>0.25</v>
-      </c>
-      <c r="AX12">
-        <v>0.25</v>
-      </c>
-      <c r="AZ12">
         <v>0.25</v>
       </c>
     </row>
